--- a/orders.xlsx
+++ b/orders.xlsx
@@ -56,6 +56,648 @@
     <t xml:space="preserve">zipCode</t>
   </si>
   <si>
+    <t xml:space="preserve">cb993a5b-3fb2-429e-887a-b7c904374698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austin Schamberger II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amely_Sporer-Adams@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-18T05:47:33.412Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1169 Harvey Streets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Dakota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a58068a1-950c-4b6f-a8a6-a0f9a46cc897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacquelyn Harvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rae.Dickens@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-06T19:05:26.323Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">628.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7958 Gilbert Harbor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Destiny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhode Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99254-2521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1bea56d3-f29e-4bb3-a132-3a6493009019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Virgil Hills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadia.Boyle26@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-11T14:49:45.119Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">933.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1608 Dickens Locks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Karianefurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delaware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4d606abd-3fd1-42a1-8d2d-4a1b16b141dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary Powlowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bud82@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-27T21:51:38.400Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89454 Waterside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elliottfort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2736f41c-37a3-4bfd-9e4c-6cf60bc5818c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee Bauch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ole40@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-28T20:56:55.673Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5821 Darrell Estate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collierville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connecticut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0cdce1f4-39e8-4421-9f3f-ca5fadd43335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramona Schroeder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edd.Yundt@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-17T06:08:01.210Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6075 S Broadway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longmont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f2eb8ab8-68a5-4a4e-ba4d-88bda7cc8cbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miss Alberta Smitham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgar95@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-28T23:45:02.048Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">859.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7073 Claremont Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Samson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64440-1329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179806e3-bf48-4afb-ae42-0e8f54299775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Lisa Waters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haskell.Fritsch@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-27T14:31:37.450Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">729.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131 Center Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wauwatosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca1d22a0-b4d3-4eb0-88b6-d4a0561228d7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Johnston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jayde35@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-26T02:24:57.250Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">791.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9973 Prosacco Terrace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reingerchester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88662-6823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d673678c-5fa4-4745-af87-3277ae294afc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelli Jakubowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santos_Trantow@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-28T00:39:54.182Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197 Broadway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Myers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Hampshire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dc350d61-6f95-4010-b757-8f0b0570bddf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mildred Bergnaum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleora65@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-10T12:00:07.214Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5517 Nienow Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Leaboro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbeb7cd3-7994-45b1-ba33-e4e1881fd05f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olivia Douglas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madge.Conroy@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-06T11:50:07.289Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">881.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8437 E Church Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnsside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Dakota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9751fc2e-bf20-4bf7-bead-1d9c52f88de7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guillermo Corwin-Cole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emelie_Jast@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-05T14:58:17.735Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2836 Flatley Highway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O'Keefeton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33120-5718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a3a1e049-43a7-41ad-941f-585f58406f9f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randal Zieme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Della84@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-04T19:35:17.212Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">649.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29396 Adams Avenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Waltertown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34784-1014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7623b82b-0070-42b8-953e-06337faeee37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bert Kulas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill33@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-07T12:11:14.592Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8999 Locust Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centennial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53b9644e-4543-4c7f-b51d-39c7923707af</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. Marian Runolfsdottir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gladys_Wunsch83@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-21T12:44:21.935Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35688 Grange Avenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Luciennestad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06006-5314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238607b3-e485-456f-b6e8-4ee3bc9547b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Wuckert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sasha.Wyman16@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-25T13:35:14.361Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">483.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4229 Airport Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hipolitoside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51683-7145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">412557c8-da69-488a-b061-d6aa7bf7487f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. Kelly Schoen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kristofer.Cronin@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-06T07:23:23.510Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">564.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53053 Bednar Ridges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58792-6378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4ff551af-a662-4663-ba49-a02a9268a619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pam Fadel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willa45@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-01T21:23:00.848Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">533.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7621 Carter Hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cassieberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52313-5788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d282e54a-b607-4f33-a1f7-fb96b72e0764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sidney Bode MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfred.Grant@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-15T16:59:24.343Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52997 Padberg Heights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebecaport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1a2b3c4d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">johndoe@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-14T10:00:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234 Main St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Angeles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane Doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">janedoe@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-13T09:30:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5678 Elm St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Francisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e4f6g8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alice Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alicesmith@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-12T15:45:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9102 Pine St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3i5j7k9l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bobjohnson@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-11T11:20:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3456 Oak St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60601</t>
+  </si>
+  <si>
     <t xml:space="preserve">1c431600-2ab9-4906-b8da-878fc4bf33ae</t>
   </si>
   <si>
@@ -71,9 +713,6 @@
     <t xml:space="preserve">700.01</t>
   </si>
   <si>
-    <t xml:space="preserve">Pending</t>
-  </si>
-  <si>
     <t xml:space="preserve">830 Osinski Trace</t>
   </si>
   <si>
@@ -128,18 +767,12 @@
     <t xml:space="preserve">432.43</t>
   </si>
   <si>
-    <t xml:space="preserve">Shipped</t>
-  </si>
-  <si>
     <t xml:space="preserve">5813 Richmond Close</t>
   </si>
   <si>
     <t xml:space="preserve">Mohammedhaven</t>
   </si>
   <si>
-    <t xml:space="preserve">Connecticut</t>
-  </si>
-  <si>
     <t xml:space="preserve">70449-1501</t>
   </si>
   <si>
@@ -156,9 +789,6 @@
   </si>
   <si>
     <t xml:space="preserve">391.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivered</t>
   </si>
   <si>
     <t xml:space="preserve">48469 N 9th Street</t>
@@ -523,14 +1153,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -615,71 +1245,71 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -711,7 +1341,7 @@
         <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>54</v>
@@ -724,6 +1354,1382 @@
       </c>
       <c r="J6" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" t="s">
+        <v>188</v>
+      </c>
+      <c r="I21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>203</v>
+      </c>
+      <c r="H23" t="s">
+        <v>204</v>
+      </c>
+      <c r="I23" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H24" t="s">
+        <v>212</v>
+      </c>
+      <c r="I24" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>220</v>
+      </c>
+      <c r="H25" t="s">
+        <v>221</v>
+      </c>
+      <c r="I25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" t="s">
+        <v>204</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>211</v>
+      </c>
+      <c r="H27" t="s">
+        <v>212</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>220</v>
+      </c>
+      <c r="H28" t="s">
+        <v>221</v>
+      </c>
+      <c r="I28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>203</v>
+      </c>
+      <c r="H29" t="s">
+        <v>204</v>
+      </c>
+      <c r="I29" t="s">
+        <v>197</v>
+      </c>
+      <c r="J29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>203</v>
+      </c>
+      <c r="H30" t="s">
+        <v>204</v>
+      </c>
+      <c r="I30" t="s">
+        <v>197</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" t="s">
+        <v>212</v>
+      </c>
+      <c r="I31" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>220</v>
+      </c>
+      <c r="H32" t="s">
+        <v>221</v>
+      </c>
+      <c r="I32" t="s">
+        <v>222</v>
+      </c>
+      <c r="J32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" t="s">
+        <v>204</v>
+      </c>
+      <c r="I33" t="s">
+        <v>197</v>
+      </c>
+      <c r="J33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" t="s">
+        <v>211</v>
+      </c>
+      <c r="H34" t="s">
+        <v>212</v>
+      </c>
+      <c r="I34" t="s">
+        <v>213</v>
+      </c>
+      <c r="J34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>220</v>
+      </c>
+      <c r="H35" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35" t="s">
+        <v>222</v>
+      </c>
+      <c r="J35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>203</v>
+      </c>
+      <c r="H36" t="s">
+        <v>204</v>
+      </c>
+      <c r="I36" t="s">
+        <v>197</v>
+      </c>
+      <c r="J36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" t="s">
+        <v>211</v>
+      </c>
+      <c r="H37" t="s">
+        <v>212</v>
+      </c>
+      <c r="I37" t="s">
+        <v>213</v>
+      </c>
+      <c r="J37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" t="s">
+        <v>219</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>220</v>
+      </c>
+      <c r="H38" t="s">
+        <v>221</v>
+      </c>
+      <c r="I38" t="s">
+        <v>222</v>
+      </c>
+      <c r="J38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>203</v>
+      </c>
+      <c r="H39" t="s">
+        <v>204</v>
+      </c>
+      <c r="I39" t="s">
+        <v>197</v>
+      </c>
+      <c r="J39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" t="s">
+        <v>210</v>
+      </c>
+      <c r="F40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" t="s">
+        <v>211</v>
+      </c>
+      <c r="H40" t="s">
+        <v>212</v>
+      </c>
+      <c r="I40" t="s">
+        <v>213</v>
+      </c>
+      <c r="J40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>220</v>
+      </c>
+      <c r="H41" t="s">
+        <v>221</v>
+      </c>
+      <c r="I41" t="s">
+        <v>222</v>
+      </c>
+      <c r="J41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>203</v>
+      </c>
+      <c r="H42" t="s">
+        <v>204</v>
+      </c>
+      <c r="I42" t="s">
+        <v>197</v>
+      </c>
+      <c r="J42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" t="s">
+        <v>210</v>
+      </c>
+      <c r="F43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" t="s">
+        <v>211</v>
+      </c>
+      <c r="H43" t="s">
+        <v>212</v>
+      </c>
+      <c r="I43" t="s">
+        <v>213</v>
+      </c>
+      <c r="J43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" t="s">
+        <v>219</v>
+      </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>220</v>
+      </c>
+      <c r="H44" t="s">
+        <v>221</v>
+      </c>
+      <c r="I44" t="s">
+        <v>222</v>
+      </c>
+      <c r="J44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E45" t="s">
+        <v>228</v>
+      </c>
+      <c r="F45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
+        <v>229</v>
+      </c>
+      <c r="H45" t="s">
+        <v>230</v>
+      </c>
+      <c r="I45" t="s">
+        <v>231</v>
+      </c>
+      <c r="J45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>233</v>
+      </c>
+      <c r="B46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" t="s">
+        <v>236</v>
+      </c>
+      <c r="E46" t="s">
+        <v>237</v>
+      </c>
+      <c r="F46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" t="s">
+        <v>238</v>
+      </c>
+      <c r="H46" t="s">
+        <v>239</v>
+      </c>
+      <c r="I46" t="s">
+        <v>240</v>
+      </c>
+      <c r="J46" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" t="s">
+        <v>245</v>
+      </c>
+      <c r="E47" t="s">
+        <v>246</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>247</v>
+      </c>
+      <c r="H47" t="s">
+        <v>248</v>
+      </c>
+      <c r="I47" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48" t="s">
+        <v>254</v>
+      </c>
+      <c r="F48" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" t="s">
+        <v>255</v>
+      </c>
+      <c r="H48" t="s">
+        <v>256</v>
+      </c>
+      <c r="I48" t="s">
+        <v>257</v>
+      </c>
+      <c r="J48" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" t="s">
+        <v>260</v>
+      </c>
+      <c r="C49" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49" t="s">
+        <v>262</v>
+      </c>
+      <c r="E49" t="s">
+        <v>263</v>
+      </c>
+      <c r="F49" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" t="s">
+        <v>264</v>
+      </c>
+      <c r="H49" t="s">
+        <v>265</v>
+      </c>
+      <c r="I49" t="s">
+        <v>266</v>
+      </c>
+      <c r="J49" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
